--- a/code_outputs/mid_excel/250719.xlsx
+++ b/code_outputs/mid_excel/250719.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="220">
   <si>
     <t>중분류코드</t>
   </si>
@@ -49,9 +49,15 @@
     <t>010</t>
   </si>
   <si>
+    <t>012</t>
+  </si>
+  <si>
     <t>014</t>
   </si>
   <si>
+    <t>016</t>
+  </si>
+  <si>
     <t>017</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>036</t>
   </si>
   <si>
+    <t>037</t>
+  </si>
+  <si>
     <t>040</t>
   </si>
   <si>
@@ -115,6 +124,9 @@
     <t>058</t>
   </si>
   <si>
+    <t>060</t>
+  </si>
+  <si>
     <t>072</t>
   </si>
   <si>
@@ -127,9 +139,15 @@
     <t>제조음료</t>
   </si>
   <si>
+    <t>빵</t>
+  </si>
+  <si>
     <t>디저트</t>
   </si>
   <si>
+    <t>스낵류</t>
+  </si>
+  <si>
     <t>시리얼</t>
   </si>
   <si>
@@ -163,6 +181,9 @@
     <t>의약외품</t>
   </si>
   <si>
+    <t>건강기능</t>
+  </si>
+  <si>
     <t>기능건강음료</t>
   </si>
   <si>
@@ -193,6 +214,9 @@
     <t>의류용품</t>
   </si>
   <si>
+    <t>홈/주방용품</t>
+  </si>
+  <si>
     <t>담배</t>
   </si>
   <si>
@@ -217,18 +241,39 @@
     <t>2202000107644</t>
   </si>
   <si>
+    <t>8801068409215</t>
+  </si>
+  <si>
     <t>8801753108478</t>
   </si>
   <si>
+    <t>8801151112107</t>
+  </si>
+  <si>
+    <t>8801117784409</t>
+  </si>
+  <si>
     <t>8852756055610</t>
   </si>
   <si>
     <t>8990800000053</t>
   </si>
   <si>
+    <t>8859623800397</t>
+  </si>
+  <si>
     <t>8437004492838</t>
   </si>
   <si>
+    <t>8436556395932</t>
+  </si>
+  <si>
+    <t>8801117339708</t>
+  </si>
+  <si>
+    <t>8801111187893</t>
+  </si>
+  <si>
     <t>8803622102471</t>
   </si>
   <si>
@@ -295,6 +340,12 @@
     <t>8801105914382</t>
   </si>
   <si>
+    <t>8809422043884</t>
+  </si>
+  <si>
+    <t>8809422044904</t>
+  </si>
+  <si>
     <t>8806002001845</t>
   </si>
   <si>
@@ -316,6 +367,9 @@
     <t>8801115382003</t>
   </si>
   <si>
+    <t>8809388464471</t>
+  </si>
+  <si>
     <t>8801056249892</t>
   </si>
   <si>
@@ -370,6 +424,9 @@
     <t>8806366734519</t>
   </si>
   <si>
+    <t>2200000079947</t>
+  </si>
+  <si>
     <t>8801116000456</t>
   </si>
   <si>
@@ -412,18 +469,39 @@
     <t>25뉴get아이스아메XL</t>
   </si>
   <si>
+    <t>삼립)찰옥수수이야기</t>
+  </si>
+  <si>
     <t>연세)우유생크림빵</t>
   </si>
   <si>
+    <t>서울)허니뻥이요스낵90g</t>
+  </si>
+  <si>
+    <t>오리온)꼬북칩콘스프맛</t>
+  </si>
+  <si>
     <t>켈로그)크런치넛에너지바</t>
   </si>
   <si>
     <t>농심)멘토스푸르티</t>
   </si>
   <si>
+    <t>매크로)하이츄복숭아맛</t>
+  </si>
+  <si>
     <t>스위트)트롤리계란후라이</t>
   </si>
   <si>
+    <t>스위트)트롤리키스</t>
+  </si>
+  <si>
+    <t>오리온)마이구미포도66g</t>
+  </si>
+  <si>
+    <t>크라운)마이쮸포도</t>
+  </si>
+  <si>
     <t>한양)숏바디버터불고기40g</t>
   </si>
   <si>
@@ -490,6 +568,12 @@
     <t>해태)영진구론산병150ml</t>
   </si>
   <si>
+    <t>HK)컨디션스틱18g</t>
+  </si>
+  <si>
+    <t>HK)컨디션스틱망고18g</t>
+  </si>
+  <si>
     <t>광동)비타500병100ml</t>
   </si>
   <si>
@@ -511,6 +595,9 @@
     <t>스벅)카페라떼컵320ml</t>
   </si>
   <si>
+    <t>이디야)쇼콜라모카300ml</t>
+  </si>
+  <si>
     <t>롯데)마운틴듀제로캔355ml</t>
   </si>
   <si>
@@ -560,6 +647,9 @@
   </si>
   <si>
     <t>남성발목양말</t>
+  </si>
+  <si>
+    <t>종량(가정)20L</t>
   </si>
   <si>
     <t>더원블루1mg</t>
@@ -941,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -981,13 +1071,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1010,13 +1100,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1039,13 +1129,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1068,13 +1158,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1097,13 +1187,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1126,13 +1216,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1155,13 +1245,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1184,16 +1274,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1205,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1213,16 +1303,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1234,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1242,13 +1332,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1263,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1271,19 +1361,19 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1292,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1300,13 +1390,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1321,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1329,19 +1419,19 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1350,27 +1440,27 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1384,22 +1474,22 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1413,16 +1503,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1437,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1466,27 +1556,27 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1500,16 +1590,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1524,27 +1614,27 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1553,27 +1643,27 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1582,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1590,19 +1680,19 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1611,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1619,13 +1709,13 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1640,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1648,13 +1738,13 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1669,21 +1759,21 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1698,21 +1788,21 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1727,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1761,22 +1851,22 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1785,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1793,19 +1883,19 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1814,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1822,19 +1912,19 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1843,24 +1933,24 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1872,21 +1962,21 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1901,24 +1991,24 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1930,21 +2020,21 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1959,24 +2049,24 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1996,16 +2086,16 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2017,27 +2107,27 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2046,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2054,16 +2144,16 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2075,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2083,13 +2173,13 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2104,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2112,19 +2202,19 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2141,19 +2231,19 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2162,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2170,16 +2260,16 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2191,27 +2281,27 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2220,24 +2310,24 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2249,27 +2339,27 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2286,13 +2376,13 @@
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2307,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2315,42 +2405,42 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D48" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>3</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2359,27 +2449,27 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2394,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2402,28 +2492,28 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2431,28 +2521,28 @@
         <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2460,19 +2550,19 @@
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2481,27 +2571,27 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2510,24 +2600,24 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2539,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2547,19 +2637,19 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2568,24 +2658,24 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2597,27 +2687,27 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2626,50 +2716,50 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2684,85 +2774,85 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D61" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2771,27 +2861,27 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2800,27 +2890,27 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2829,35 +2919,354 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
         <v>34</v>
       </c>
-      <c r="B66" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" t="s">
-        <v>189</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" t="s">
+        <v>209</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" t="s">
+        <v>216</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" t="s">
+        <v>217</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>21</v>
       </c>
     </row>

--- a/code_outputs/mid_excel/250719.xlsx
+++ b/code_outputs/mid_excel/250719.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="242">
   <si>
     <t>중분류코드</t>
   </si>
@@ -61,6 +61,9 @@
     <t>017</t>
   </si>
   <si>
+    <t>019</t>
+  </si>
+  <si>
     <t>020</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>073</t>
   </si>
   <si>
+    <t>900</t>
+  </si>
+  <si>
     <t>주먹밥</t>
   </si>
   <si>
@@ -151,6 +157,9 @@
     <t>시리얼</t>
   </si>
   <si>
+    <t>초콜릿</t>
+  </si>
+  <si>
     <t>캔디</t>
   </si>
   <si>
@@ -223,6 +232,9 @@
     <t>전자담배</t>
   </si>
   <si>
+    <t>소모품</t>
+  </si>
+  <si>
     <t>8800275320290</t>
   </si>
   <si>
@@ -256,6 +268,9 @@
     <t>8852756055610</t>
   </si>
   <si>
+    <t>8801019204951</t>
+  </si>
+  <si>
     <t>8990800000053</t>
   </si>
   <si>
@@ -334,6 +349,9 @@
     <t>8800279674580</t>
   </si>
   <si>
+    <t>8804227021600</t>
+  </si>
+  <si>
     <t>8806011615408</t>
   </si>
   <si>
@@ -355,6 +373,12 @@
     <t>8801056002701</t>
   </si>
   <si>
+    <t>8801056249212</t>
+  </si>
+  <si>
+    <t>8801056240998</t>
+  </si>
+  <si>
     <t>8801094362706</t>
   </si>
   <si>
@@ -373,6 +397,9 @@
     <t>8801056249892</t>
   </si>
   <si>
+    <t>8801056175955</t>
+  </si>
+  <si>
     <t>8801094082406</t>
   </si>
   <si>
@@ -412,12 +439,18 @@
     <t>4901004006813</t>
   </si>
   <si>
+    <t>8801858048198</t>
+  </si>
+  <si>
     <t>8801119241511</t>
   </si>
   <si>
     <t>8801048101023</t>
   </si>
   <si>
+    <t>8801152136843</t>
+  </si>
+  <si>
     <t>8801046846087</t>
   </si>
   <si>
@@ -433,6 +466,9 @@
     <t>8801116006830</t>
   </si>
   <si>
+    <t>0000088023465</t>
+  </si>
+  <si>
     <t>8801116007257</t>
   </si>
   <si>
@@ -451,6 +487,9 @@
     <t>0000088024134</t>
   </si>
   <si>
+    <t>2201148653150</t>
+  </si>
+  <si>
     <t>주)계란버터간장삼각1</t>
   </si>
   <si>
@@ -484,6 +523,9 @@
     <t>켈로그)크런치넛에너지바</t>
   </si>
   <si>
+    <t>해태)자유시간초콜릿바</t>
+  </si>
+  <si>
     <t>농심)멘토스푸르티</t>
   </si>
   <si>
@@ -562,6 +604,9 @@
     <t>팔도한끼)소곱창전골&amp;라면</t>
   </si>
   <si>
+    <t>가디언)탄력붕대</t>
+  </si>
+  <si>
     <t>동아)박카스F병120ml</t>
   </si>
   <si>
@@ -583,6 +628,12 @@
     <t>롯데)2프로복숭아캔240ml</t>
   </si>
   <si>
+    <t>롯데)핫식스더킹애플캔355</t>
+  </si>
+  <si>
+    <t>롯데)핫식스더킹퍼플캔355</t>
+  </si>
+  <si>
     <t>코카)파워에이드P600ml</t>
   </si>
   <si>
@@ -601,6 +652,9 @@
     <t>롯데)마운틴듀제로캔355ml</t>
   </si>
   <si>
+    <t>롯데)펩시제로라임P500ml</t>
+  </si>
+  <si>
     <t>코카)코카콜라제로P1.5L</t>
   </si>
   <si>
@@ -637,12 +691,18 @@
     <t>아사히캔500ml</t>
   </si>
   <si>
+    <t>카스레몬스퀴즈캔355ml</t>
+  </si>
+  <si>
     <t>필라이트후레쉬캔500ml</t>
   </si>
   <si>
     <t>진로이즈백병360ml</t>
   </si>
   <si>
+    <t>처음처럼새로P640ml</t>
+  </si>
+  <si>
     <t>2080)치약</t>
   </si>
   <si>
@@ -658,6 +718,9 @@
     <t>레종프렌치블랙3mg</t>
   </si>
   <si>
+    <t>말보로비스타썸머스플래시</t>
+  </si>
+  <si>
     <t>에쎄체인지업</t>
   </si>
   <si>
@@ -674,6 +737,9 @@
   </si>
   <si>
     <t>테리아오아시스펄</t>
+  </si>
+  <si>
+    <t>친환경봉투판매용</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1071,13 +1137,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1100,13 +1166,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1129,13 +1195,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1158,13 +1224,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1187,13 +1253,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1216,13 +1282,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1245,13 +1311,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1274,13 +1340,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1303,13 +1369,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1332,13 +1398,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1361,13 +1427,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -1390,13 +1456,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1411,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1440,21 +1506,21 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1469,21 +1535,21 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1498,21 +1564,21 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1527,21 +1593,21 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1556,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1564,19 +1630,19 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1585,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1593,19 +1659,19 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1614,27 +1680,27 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1643,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1651,19 +1717,19 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1672,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1680,19 +1746,19 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1701,27 +1767,27 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1735,16 +1801,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1759,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1767,13 +1833,13 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1788,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1796,13 +1862,13 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1817,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1846,53 +1912,53 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>5</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1904,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1933,21 +1999,21 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1962,21 +2028,21 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1991,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2020,21 +2086,21 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2049,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2057,19 +2123,19 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2078,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2086,13 +2152,13 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2107,21 +2173,21 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2144,19 +2210,19 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2165,21 +2231,21 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2194,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2202,16 +2268,16 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2223,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2231,13 +2297,13 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2252,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2260,16 +2326,16 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2281,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2289,13 +2355,13 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2310,27 +2376,27 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2339,27 +2405,27 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2368,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2376,19 +2442,19 @@
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2397,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2405,13 +2471,13 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2426,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2434,13 +2500,13 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2455,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2463,19 +2529,19 @@
         <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2492,19 +2558,19 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2513,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2521,19 +2587,19 @@
         <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2542,21 +2608,21 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2571,27 +2637,27 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2600,24 +2666,24 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2629,27 +2695,27 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2658,27 +2724,27 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2687,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2695,19 +2761,19 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2724,28 +2790,28 @@
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2753,19 +2819,19 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2774,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2782,28 +2848,28 @@
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2811,22 +2877,22 @@
         <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2837,23 +2903,23 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
         <v>3</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
       <c r="G63">
         <v>0</v>
       </c>
@@ -2861,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2869,13 +2935,13 @@
         <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2884,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2898,19 +2964,19 @@
         <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2919,21 +2985,21 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2942,62 +3008,62 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
         <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3006,21 +3072,21 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3035,27 +3101,27 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>-14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3064,27 +3130,27 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3093,24 +3159,24 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3122,21 +3188,21 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3151,24 +3217,24 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
         <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3180,27 +3246,27 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B75" t="s">
         <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="E75">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3209,21 +3275,21 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3238,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>9</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3246,19 +3312,19 @@
         <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D77" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3267,7 +3333,265 @@
         <v>0</v>
       </c>
       <c r="I77">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" t="s">
+        <v>233</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" t="s">
+        <v>235</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" t="s">
+        <v>239</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" t="s">
+        <v>240</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
         <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" t="s">
+        <v>241</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/code_outputs/mid_excel/250719.xlsx
+++ b/code_outputs/mid_excel/250719.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="268">
   <si>
     <t>중분류코드</t>
   </si>
@@ -79,6 +79,9 @@
     <t>028</t>
   </si>
   <si>
+    <t>029</t>
+  </si>
+  <si>
     <t>031</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>040</t>
   </si>
   <si>
+    <t>041</t>
+  </si>
+  <si>
     <t>042</t>
   </si>
   <si>
@@ -175,6 +181,9 @@
     <t>축수산식재료</t>
   </si>
   <si>
+    <t>조미료류</t>
+  </si>
+  <si>
     <t>반찬류</t>
   </si>
   <si>
@@ -196,6 +205,9 @@
     <t>기능건강음료</t>
   </si>
   <si>
+    <t>생수</t>
+  </si>
+  <si>
     <t>커피음료</t>
   </si>
   <si>
@@ -235,6 +247,9 @@
     <t>소모품</t>
   </si>
   <si>
+    <t>8809948346506</t>
+  </si>
+  <si>
     <t>8800275320290</t>
   </si>
   <si>
@@ -310,6 +325,9 @@
     <t>8809136851096</t>
   </si>
   <si>
+    <t>8801007052984</t>
+  </si>
+  <si>
     <t>8801007512259</t>
   </si>
   <si>
@@ -343,6 +361,9 @@
     <t>8809350321818</t>
   </si>
   <si>
+    <t>8809015114731</t>
+  </si>
+  <si>
     <t>8809015114663</t>
   </si>
   <si>
@@ -382,6 +403,9 @@
     <t>8801094362706</t>
   </si>
   <si>
+    <t>8801056169817</t>
+  </si>
+  <si>
     <t>8809685311027</t>
   </si>
   <si>
@@ -403,6 +427,9 @@
     <t>8801094082406</t>
   </si>
   <si>
+    <t>8801094000394</t>
+  </si>
+  <si>
     <t>8809253649453</t>
   </si>
   <si>
@@ -412,6 +439,9 @@
     <t>8801155721954</t>
   </si>
   <si>
+    <t>0000088002798</t>
+  </si>
+  <si>
     <t>8801115134220</t>
   </si>
   <si>
@@ -421,6 +451,9 @@
     <t>8801115114154</t>
   </si>
   <si>
+    <t>8801115114727</t>
+  </si>
+  <si>
     <t>8809197840107</t>
   </si>
   <si>
@@ -445,6 +478,9 @@
     <t>8801119241511</t>
   </si>
   <si>
+    <t>8801022025277</t>
+  </si>
+  <si>
     <t>8801048101023</t>
   </si>
   <si>
@@ -457,12 +493,18 @@
     <t>8806366734519</t>
   </si>
   <si>
+    <t>2200000079930</t>
+  </si>
+  <si>
     <t>2200000079947</t>
   </si>
   <si>
     <t>8801116000456</t>
   </si>
   <si>
+    <t>0000088006604</t>
+  </si>
+  <si>
     <t>8801116006830</t>
   </si>
   <si>
@@ -481,6 +523,9 @@
     <t>8801116012176</t>
   </si>
   <si>
+    <t>8801116056644</t>
+  </si>
+  <si>
     <t>0000088024745</t>
   </si>
   <si>
@@ -490,6 +535,9 @@
     <t>2201148653150</t>
   </si>
   <si>
+    <t>주)3XL베이컨참치마요1</t>
+  </si>
+  <si>
     <t>주)계란버터간장삼각1</t>
   </si>
   <si>
@@ -565,6 +613,9 @@
     <t>제니코)치즈파티모짜렐라</t>
   </si>
   <si>
+    <t>CJ)해찬들초고추장170g</t>
+  </si>
+  <si>
     <t>CJ)스팸200g</t>
   </si>
   <si>
@@ -598,6 +649,9 @@
     <t>HEYROO순살치킨득템매콤C</t>
   </si>
   <si>
+    <t>디엔비)두툼불고기고로케</t>
+  </si>
+  <si>
     <t>디엔비)통통새우고로케</t>
   </si>
   <si>
@@ -637,6 +691,9 @@
     <t>코카)파워에이드P600ml</t>
   </si>
   <si>
+    <t>HEYROO미네랄워터P500ml</t>
+  </si>
+  <si>
     <t>미루꾸)플랫너티라떼</t>
   </si>
   <si>
@@ -658,6 +715,9 @@
     <t>코카)코카콜라제로P1.5L</t>
   </si>
   <si>
+    <t>코카)환타멜론P600ml</t>
+  </si>
+  <si>
     <t>24del)헤이즐넛향340ml</t>
   </si>
   <si>
@@ -667,6 +727,9 @@
     <t>동원)소화잘되는우유900ml</t>
   </si>
   <si>
+    <t>빙그레)바나나우유240ml</t>
+  </si>
+  <si>
     <t>서울)초코우유300ml</t>
   </si>
   <si>
@@ -676,6 +739,9 @@
     <t>서울)흰우유1L</t>
   </si>
   <si>
+    <t>서울)흰우유300ml</t>
+  </si>
+  <si>
     <t>del)빅컵얼음230g</t>
   </si>
   <si>
@@ -697,6 +763,9 @@
     <t>필라이트후레쉬캔500ml</t>
   </si>
   <si>
+    <t>롯데)새로다래병360ml</t>
+  </si>
+  <si>
     <t>진로이즈백병360ml</t>
   </si>
   <si>
@@ -709,12 +778,18 @@
     <t>남성발목양말</t>
   </si>
   <si>
+    <t>종량(가정)10L</t>
+  </si>
+  <si>
     <t>종량(가정)20L</t>
   </si>
   <si>
     <t>더원블루1mg</t>
   </si>
   <si>
+    <t>디스플러스5mg</t>
+  </si>
+  <si>
     <t>레종프렌치블랙3mg</t>
   </si>
   <si>
@@ -731,6 +806,9 @@
   </si>
   <si>
     <t>LIL액상카트리지</t>
+  </si>
+  <si>
+    <t>MIIX아이스모아</t>
   </si>
   <si>
     <t>센티아클래식그린</t>
@@ -1097,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1137,19 +1215,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1166,13 +1244,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1187,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1195,13 +1273,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1224,13 +1302,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1253,13 +1331,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1279,22 +1357,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1303,21 +1381,21 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1332,21 +1410,21 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1366,19 +1444,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1390,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1398,16 +1476,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1424,19 +1502,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1448,24 +1526,24 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1477,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1506,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1514,13 +1592,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1535,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1543,13 +1621,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1564,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1572,13 +1650,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1593,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1601,13 +1679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1622,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1630,13 +1708,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1651,27 +1729,27 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1680,27 +1758,27 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1709,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1717,19 +1795,19 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1738,27 +1816,27 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1767,27 +1845,27 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1796,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1804,19 +1882,19 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1833,13 +1911,13 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1854,21 +1932,21 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1883,21 +1961,21 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1912,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1920,13 +1998,13 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1941,24 +2019,24 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1970,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1999,24 +2077,24 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2028,21 +2106,21 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2057,21 +2135,21 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2086,21 +2164,21 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2115,21 +2193,21 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2144,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2152,19 +2230,19 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2173,27 +2251,27 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2202,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2210,13 +2288,13 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2231,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2239,13 +2317,13 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2268,19 +2346,19 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2289,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2297,19 +2375,19 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2318,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2326,13 +2404,13 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2347,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2355,16 +2433,16 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2376,24 +2454,24 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2405,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2413,13 +2491,13 @@
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2434,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2442,19 +2520,19 @@
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2463,24 +2541,24 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2492,21 +2570,21 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2526,19 +2604,19 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2558,13 +2636,13 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2579,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2587,13 +2665,13 @@
         <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2608,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2616,19 +2694,19 @@
         <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2642,16 +2720,16 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2666,27 +2744,27 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D55" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2695,24 +2773,24 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2724,36 +2802,36 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>2</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2761,13 +2839,13 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2782,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2790,19 +2868,19 @@
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2811,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2819,19 +2897,19 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2840,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2848,19 +2926,19 @@
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2869,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2877,16 +2955,16 @@
         <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2898,27 +2976,27 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2932,51 +3010,51 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D64" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G64">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2985,21 +3063,21 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3008,42 +3086,42 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3051,19 +3129,19 @@
         <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3072,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3080,19 +3158,19 @@
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D69" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3101,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3109,13 +3187,13 @@
         <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3130,36 +3208,36 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3167,13 +3245,13 @@
         <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D72" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3196,13 +3274,13 @@
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D73" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3211,62 +3289,62 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D74" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3275,21 +3353,21 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
         <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D76" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3304,27 +3382,27 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>-14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3333,27 +3411,27 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D78" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -3362,21 +3440,21 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B79" t="s">
         <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D79" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3391,24 +3469,24 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s">
         <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D80" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3420,21 +3498,21 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s">
         <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D81" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3449,24 +3527,24 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3478,27 +3556,27 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D83" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E83">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3507,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3515,13 +3593,13 @@
         <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D84" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3536,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>9</v>
+        <v>-233</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3544,13 +3622,13 @@
         <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D85" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3565,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>21</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3573,24 +3651,343 @@
         <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D86" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" t="s">
+        <v>257</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" t="s">
+        <v>258</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" t="s">
+        <v>259</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" t="s">
+        <v>260</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93">
+        <v>14</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" t="s">
+        <v>265</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D96" t="s">
+        <v>266</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" t="s">
+        <v>267</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>0</v>
       </c>
     </row>

--- a/code_outputs/mid_excel/250719.xlsx
+++ b/code_outputs/mid_excel/250719.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="274">
   <si>
     <t>중분류코드</t>
   </si>
@@ -136,6 +136,9 @@
     <t>060</t>
   </si>
   <si>
+    <t>062</t>
+  </si>
+  <si>
     <t>072</t>
   </si>
   <si>
@@ -238,6 +241,9 @@
     <t>홈/주방용품</t>
   </si>
   <si>
+    <t>전기연료</t>
+  </si>
+  <si>
     <t>담배</t>
   </si>
   <si>
@@ -499,6 +505,9 @@
     <t>2200000079947</t>
   </si>
   <si>
+    <t>8803651000045</t>
+  </si>
+  <si>
     <t>8801116000456</t>
   </si>
   <si>
@@ -520,6 +529,9 @@
     <t>0000088011967</t>
   </si>
   <si>
+    <t>0000088013114</t>
+  </si>
+  <si>
     <t>8801116012176</t>
   </si>
   <si>
@@ -784,6 +796,9 @@
     <t>종량(가정)20L</t>
   </si>
   <si>
+    <t>에이스)일회용돌라이터</t>
+  </si>
+  <si>
     <t>더원블루1mg</t>
   </si>
   <si>
@@ -803,6 +818,9 @@
   </si>
   <si>
     <t>에쎄프라임4mg</t>
+  </si>
+  <si>
+    <t>팔리아멘트아쿠아1mg</t>
   </si>
   <si>
     <t>LIL액상카트리지</t>
@@ -1175,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1215,13 +1233,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1244,13 +1262,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1273,13 +1291,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1302,13 +1320,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1331,13 +1349,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1360,13 +1378,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1389,13 +1407,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1418,13 +1436,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1447,13 +1465,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1476,13 +1494,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1505,13 +1523,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1534,13 +1552,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -1563,13 +1581,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1592,13 +1610,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1621,13 +1639,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1650,13 +1668,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1679,13 +1697,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1708,13 +1726,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1737,13 +1755,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1766,13 +1784,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1795,13 +1813,13 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1824,13 +1842,13 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1853,13 +1871,13 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1882,13 +1900,13 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1911,13 +1929,13 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1940,13 +1958,13 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1969,13 +1987,13 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1998,13 +2016,13 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2027,13 +2045,13 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2056,13 +2074,13 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2085,13 +2103,13 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -2114,13 +2132,13 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2143,13 +2161,13 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2172,13 +2190,13 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2201,13 +2219,13 @@
         <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2230,13 +2248,13 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2259,13 +2277,13 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2288,13 +2306,13 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2317,13 +2335,13 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2346,13 +2364,13 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2375,13 +2393,13 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2404,13 +2422,13 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2433,13 +2451,13 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E44">
         <v>10</v>
@@ -2462,13 +2480,13 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2491,13 +2509,13 @@
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2520,13 +2538,13 @@
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2549,13 +2567,13 @@
         <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -2578,13 +2596,13 @@
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2607,13 +2625,13 @@
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D50" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -2636,13 +2654,13 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2665,13 +2683,13 @@
         <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2694,13 +2712,13 @@
         <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -2723,13 +2741,13 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2752,13 +2770,13 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2781,13 +2799,13 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2810,13 +2828,13 @@
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2839,13 +2857,13 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2868,13 +2886,13 @@
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -2897,13 +2915,13 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -2926,13 +2944,13 @@
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D61" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -2955,13 +2973,13 @@
         <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D62" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -2984,13 +3002,13 @@
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3013,13 +3031,13 @@
         <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -3042,13 +3060,13 @@
         <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3071,13 +3089,13 @@
         <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3100,13 +3118,13 @@
         <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E67">
         <v>3</v>
@@ -3129,13 +3147,13 @@
         <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3158,13 +3176,13 @@
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D69" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3187,13 +3205,13 @@
         <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D70" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3216,13 +3234,13 @@
         <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D71" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3245,13 +3263,13 @@
         <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3274,13 +3292,13 @@
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D73" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3303,13 +3321,13 @@
         <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D74" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3332,13 +3350,13 @@
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -3361,13 +3379,13 @@
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3390,13 +3408,13 @@
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D77" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3419,13 +3437,13 @@
         <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -3448,13 +3466,13 @@
         <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3477,13 +3495,13 @@
         <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3506,13 +3524,13 @@
         <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D81" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3535,13 +3553,13 @@
         <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D82" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -3564,13 +3582,13 @@
         <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D83" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3593,13 +3611,13 @@
         <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D84" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3622,13 +3640,13 @@
         <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D85" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3651,19 +3669,19 @@
         <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D86" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3672,27 +3690,27 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D87" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3701,21 +3719,21 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D88" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3730,21 +3748,21 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D89" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3759,24 +3777,24 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C90" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D90" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3788,24 +3806,24 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D91" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3817,21 +3835,21 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D92" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3846,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3854,19 +3872,19 @@
         <v>41</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D93" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E93">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3875,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3883,19 +3901,19 @@
         <v>41</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D94" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3904,27 +3922,27 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D95" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3933,27 +3951,27 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C96" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D96" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3962,21 +3980,21 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>42</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D97" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3988,6 +4006,64 @@
         <v>0</v>
       </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" t="s">
+        <v>175</v>
+      </c>
+      <c r="D98" t="s">
+        <v>272</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" t="s">
+        <v>78</v>
+      </c>
+      <c r="C99" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" t="s">
+        <v>273</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
         <v>0</v>
       </c>
     </row>
